--- a/biology/Zoologie/Gerbille_de_Mackilligin/Gerbille_de_Mackilligin.xlsx
+++ b/biology/Zoologie/Gerbille_de_Mackilligin/Gerbille_de_Mackilligin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Gerbillus mackillingini
-La Gerbille de Mackilligin[1] (Gerbillus mackillingini)[2],[3],[4] est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés, classée par certains auteurs dans le genre Dipodillus. Elle est originaire d'Égypte et du Soudan.
+La Gerbille de Mackilligin (Gerbillus mackillingini) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés, classée par certains auteurs dans le genre Dipodillus. Elle est originaire d'Égypte et du Soudan.
 Synonymes :
-Dipodillus mackilligini[5]
-Dipodillus (Petteromys) mackilligini[6]</t>
+Dipodillus mackilligini
+Dipodillus (Petteromys) mackilligini</t>
         </is>
       </c>
     </row>
